--- a/yes-no-population-template.xlsx
+++ b/yes-no-population-template.xlsx
@@ -165,10 +165,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10267</c:v>
+                  <c:v>9009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1034</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -183,11 +183,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53683328"/>
-        <c:axId val="53684864"/>
+        <c:axId val="41767296"/>
+        <c:axId val="41768832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53683328"/>
+        <c:axId val="41767296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -196,7 +196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53684864"/>
+        <c:crossAx val="41768832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -204,7 +204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53684864"/>
+        <c:axId val="41768832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -215,7 +215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53683328"/>
+        <c:crossAx val="41767296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -562,7 +562,7 @@
   <dimension ref="B4:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,10 +591,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>10267</v>
+        <v>9009</v>
       </c>
       <c r="D6">
-        <v>1034</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
